--- a/biology/Botanique/Pyrole/Pyrole.xlsx
+++ b/biology/Botanique/Pyrole/Pyrole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">« Pyrole », ou pirole, est un nom vernaculaire qui désigne en français plusieurs espèces de plante à fleurs de la famille des Ericaceae (Éricacées), sous-famille ou tribu des Pyroloïdées, appartenant pour la plupart au genre Pyrola,  sauf trois dans les genres Orthilia, Moneses et Chimaphila. Ces espèces dans ces trois genres étaient antérieurement classées elles aussi dans le genre Pyrola, mais il s'agissait d'un taxon polyphylétique, selon des études phylogénétiques.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste d'espèces appelées « pyrole »</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Une dizaine d'espèces sont présentes en Europe.
 Parmi elles : 
@@ -546,7 +560,9 @@
           <t>Caractéristiques des pyroles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit généralement de plantes herbacées de petite taille, 5 à 20 cm, portant une petite dizaine de fleurs blanchâtres pendantes et aux étamines et pistil saillants, poussant en milieu ombragé.
 </t>
